--- a/data/data_monitoreo_curva_de_sun.xlsx
+++ b/data/data_monitoreo_curva_de_sun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,117 +452,207 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANGIE BELÉN RODRÍGUEZ ZAVALA</t>
+          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CARBAJAL RAMOS JESUS MARINA</t>
+          <t>SANCHEZ ULLOA CESAR AUGUSTO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DANY DARWIN VILLACORTA SAAVEDRA</t>
+          <t>DAVILA CORDOVA MARIBEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GUERRA CALDERON ESTHEFANY NICOLLE</t>
+          <t>FIORELA KEILY GUTIERREZ CRUZ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GONZALES VALLE SEBASTIAN</t>
+          <t>RAMOS RAMOS HANDY JAIR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RAMOS RAMOS HANDY JAIR</t>
+          <t>GONZALES VALLE SEBASTIAN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CASTILLO QUEZADA DIEGO ALONSO</t>
+          <t>DELGADO DELGADO RONI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DELGADO DELGADO RONI</t>
+          <t>CASTILLO QUEZADA DIEGO ALONSO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
+          <t>ARANEDA LOPEZ MARCO VIERI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OLIVA ALVA GOSSELYN NASSIRA</t>
+          <t>JAVE CHAVEZ ANGHELO MARTIN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SANCHEZ ULLOA CESAR AUGUSTO</t>
+          <t>ANGIE BELÉN RODRÍGUEZ ZAVALA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CARBAJAL RAMOS JESUS MARINA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>OLIVA ALVA GOSSELYN NASSIRA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GUERRA CALDERON ESTHEFANY NICOLLE</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DANY DARWIN VILLACORTA SAAVEDRA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BAZAN TEJADA JOSE VICENTE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>VERDE LIZARRAGA DEYSI EUFEMIA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CARDENAS CAMPOJO MARY PAULA</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GARCIA GUTIERREZ LUIS ARTURO</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ALVITES CAMPOS SERGIO MARTIN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_curva_de_sun.xlsx
+++ b/data/data_monitoreo_curva_de_sun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,41 +448,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FARFAN MONTOYA ROSSANA ISABEL</t>
+          <t>DAVILA CORDOVA MARIBEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
+          <t>FARFAN MONTOYA ROSSANA ISABEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SANCHEZ ULLOA CESAR AUGUSTO</t>
+          <t>ANGIE BELÉN RODRÍGUEZ ZAVALA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DAVILA CORDOVA MARIBEL</t>
+          <t>SANCHEZ ULLOA CESAR AUGUSTO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -512,17 +512,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DELGADO DELGADO RONI</t>
+          <t>GARCIA GUTIERREZ LUIS ARTURO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -532,37 +532,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ARANEDA LOPEZ MARCO VIERI</t>
+          <t>OLIVA ALVA GOSSELYN NASSIRA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JAVE CHAVEZ ANGHELO MARTIN</t>
+          <t>ARANEDA LOPEZ MARCO VIERI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ANGIE BELÉN RODRÍGUEZ ZAVALA</t>
+          <t>DELGADO DELGADO RONI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -572,37 +572,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OLIVA ALVA GOSSELYN NASSIRA</t>
+          <t>DANY DARWIN VILLACORTA SAAVEDRA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GUERRA CALDERON ESTHEFANY NICOLLE</t>
+          <t>VERDE LIZARRAGA DEYSI EUFEMIA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DANY DARWIN VILLACORTA SAAVEDRA</t>
+          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -612,37 +612,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VERDE LIZARRAGA DEYSI EUFEMIA</t>
+          <t>GUERRA CALDERON ESTHEFANY NICOLLE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CARDENAS CAMPOJO MARY PAULA</t>
+          <t>JAVE CHAVEZ ANGHELO MARTIN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GARCIA GUTIERREZ LUIS ARTURO</t>
+          <t>CARDENAS CAMPOJO MARY PAULA</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,17 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ROCHA SIPIRAN JHORDAN ENRIQUE</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_curva_de_sun.xlsx
+++ b/data/data_monitoreo_curva_de_sun.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -492,47 +492,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RAMOS RAMOS HANDY JAIR</t>
+          <t>GARCIA GUTIERREZ LUIS ARTURO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GONZALES VALLE SEBASTIAN</t>
+          <t>RAMOS RAMOS HANDY JAIR</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GARCIA GUTIERREZ LUIS ARTURO</t>
+          <t>CARBAJAL RAMOS JESUS MARINA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CASTILLO QUEZADA DIEGO ALONSO</t>
+          <t>DELGADO DELGADO RONI</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -542,97 +542,97 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ARANEDA LOPEZ MARCO VIERI</t>
+          <t>GONZALES VALLE SEBASTIAN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DELGADO DELGADO RONI</t>
+          <t>VERDE LIZARRAGA DEYSI EUFEMIA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CARBAJAL RAMOS JESUS MARINA</t>
+          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DANY DARWIN VILLACORTA SAAVEDRA</t>
+          <t>BAZAN TEJADA JOSE VICENTE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VERDE LIZARRAGA DEYSI EUFEMIA</t>
+          <t>CASTILLO QUEZADA DIEGO ALONSO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
+          <t>DANY DARWIN VILLACORTA SAAVEDRA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BAZAN TEJADA JOSE VICENTE</t>
+          <t>GUERRA CALDERON ESTHEFANY NICOLLE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GUERRA CALDERON ESTHEFANY NICOLLE</t>
+          <t>JAVE CHAVEZ ANGHELO MARTIN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JAVE CHAVEZ ANGHELO MARTIN</t>
+          <t>ARANEDA LOPEZ MARCO VIERI</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">

--- a/data/data_monitoreo_curva_de_sun.xlsx
+++ b/data/data_monitoreo_curva_de_sun.xlsx
@@ -448,141 +448,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DAVILA CORDOVA MARIBEL</t>
+          <t>FARFAN MONTOYA ROSSANA ISABEL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FARFAN MONTOYA ROSSANA ISABEL</t>
+          <t>DAVILA CORDOVA MARIBEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANGIE BELÉN RODRÍGUEZ ZAVALA</t>
+          <t>SANCHEZ ULLOA CESAR AUGUSTO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SANCHEZ ULLOA CESAR AUGUSTO</t>
+          <t>RAMOS RAMOS HANDY JAIR</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FIORELA KEILY GUTIERREZ CRUZ</t>
+          <t>GARCIA GUTIERREZ LUIS ARTURO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GARCIA GUTIERREZ LUIS ARTURO</t>
+          <t>FIORELA KEILY GUTIERREZ CRUZ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RAMOS RAMOS HANDY JAIR</t>
+          <t>CARBAJAL RAMOS JESUS MARINA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CARBAJAL RAMOS JESUS MARINA</t>
+          <t>ANGIE BELÉN RODRÍGUEZ ZAVALA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DELGADO DELGADO RONI</t>
+          <t>GONZALES VALLE SEBASTIAN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OLIVA ALVA GOSSELYN NASSIRA</t>
+          <t>DELGADO DELGADO RONI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GONZALES VALLE SEBASTIAN</t>
+          <t>OLIVA ALVA GOSSELYN NASSIRA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VERDE LIZARRAGA DEYSI EUFEMIA</t>
+          <t>BAZAN TEJADA JOSE VICENTE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
+          <t>ARANEDA LOPEZ MARCO VIERI</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BAZAN TEJADA JOSE VICENTE</t>
+          <t>VERDE LIZARRAGA DEYSI EUFEMIA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -592,17 +592,17 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DANY DARWIN VILLACORTA SAAVEDRA</t>
+          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -612,37 +612,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JAVE CHAVEZ ANGHELO MARTIN</t>
+          <t>DANY DARWIN VILLACORTA SAAVEDRA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ARANEDA LOPEZ MARCO VIERI</t>
+          <t>CARDENAS CAMPOJO MARY PAULA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CARDENAS CAMPOJO MARY PAULA</t>
+          <t>JAVE CHAVEZ ANGHELO MARTIN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">

--- a/data/data_monitoreo_curva_de_sun.xlsx
+++ b/data/data_monitoreo_curva_de_sun.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GARCIA GUTIERREZ LUIS ARTURO</t>
+          <t>FIORELA KEILY GUTIERREZ CRUZ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -498,21 +498,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FIORELA KEILY GUTIERREZ CRUZ</t>
+          <t>CARBAJAL RAMOS JESUS MARINA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CARBAJAL RAMOS JESUS MARINA</t>
+          <t>GARCIA GUTIERREZ LUIS ARTURO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -578,31 +578,31 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VERDE LIZARRAGA DEYSI EUFEMIA</t>
+          <t>DANY DARWIN VILLACORTA SAAVEDRA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CASTILLO QUEZADA DIEGO ALONSO</t>
+          <t>VERDE LIZARRAGA DEYSI EUFEMIA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
+          <t>CASTILLO QUEZADA DIEGO ALONSO</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -612,17 +612,17 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DANY DARWIN VILLACORTA SAAVEDRA</t>
+          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">

--- a/data/data_monitoreo_curva_de_sun.xlsx
+++ b/data/data_monitoreo_curva_de_sun.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -462,67 +462,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SANCHEZ ULLOA CESAR AUGUSTO</t>
+          <t>ANGIE BELÉN RODRÍGUEZ ZAVALA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RAMOS RAMOS HANDY JAIR</t>
+          <t>SANCHEZ ULLOA CESAR AUGUSTO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FIORELA KEILY GUTIERREZ CRUZ</t>
+          <t>RAMOS RAMOS HANDY JAIR</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CARBAJAL RAMOS JESUS MARINA</t>
+          <t>GARCIA GUTIERREZ LUIS ARTURO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GARCIA GUTIERREZ LUIS ARTURO</t>
+          <t>CARBAJAL RAMOS JESUS MARINA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ANGIE BELÉN RODRÍGUEZ ZAVALA</t>
+          <t>FIORELA KEILY GUTIERREZ CRUZ</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -542,37 +542,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OLIVA ALVA GOSSELYN NASSIRA</t>
+          <t>VERDE LIZARRAGA DEYSI EUFEMIA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BAZAN TEJADA JOSE VICENTE</t>
+          <t>OLIVA ALVA GOSSELYN NASSIRA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ARANEDA LOPEZ MARCO VIERI</t>
+          <t>BAZAN TEJADA JOSE VICENTE</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VERDE LIZARRAGA DEYSI EUFEMIA</t>
+          <t>ARANEDA LOPEZ MARCO VIERI</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
@@ -602,47 +602,47 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GUERRA CALDERON ESTHEFANY NICOLLE</t>
+          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
+          <t>GUERRA CALDERON ESTHEFANY NICOLLE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CARDENAS CAMPOJO MARY PAULA</t>
+          <t>JAVE CHAVEZ ANGHELO MARTIN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>JAVE CHAVEZ ANGHELO MARTIN</t>
+          <t>CARDENAS CAMPOJO MARY PAULA</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">

--- a/data/data_monitoreo_curva_de_sun.xlsx
+++ b/data/data_monitoreo_curva_de_sun.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -502,27 +502,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CARBAJAL RAMOS JESUS MARINA</t>
+          <t>FIORELA KEILY GUTIERREZ CRUZ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FIORELA KEILY GUTIERREZ CRUZ</t>
+          <t>CARBAJAL RAMOS JESUS MARINA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13">
@@ -562,37 +562,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BAZAN TEJADA JOSE VICENTE</t>
+          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DANY DARWIN VILLACORTA SAAVEDRA</t>
+          <t>BAZAN TEJADA JOSE VICENTE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ARANEDA LOPEZ MARCO VIERI</t>
+          <t>DANY DARWIN VILLACORTA SAAVEDRA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -602,17 +602,17 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JOSSY IVANA SUÁREZ ZAVALETA</t>
+          <t>ARANEDA LOPEZ MARCO VIERI</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -622,27 +622,27 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>JAVE CHAVEZ ANGHELO MARTIN</t>
+          <t>CARDENAS CAMPOJO MARY PAULA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CARDENAS CAMPOJO MARY PAULA</t>
+          <t>JAVE CHAVEZ ANGHELO MARTIN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
